--- a/multipliers.xlsx
+++ b/multipliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C229"/>
+  <dimension ref="A1:C280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3402,19 +3402,682 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
+      <c r="A229" t="n">
+        <v>4.26</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>2024-08-06 13:31:18</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>4833</t>
+      <c r="C229" t="n">
+        <v>4833</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:31:57</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>4837</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:32:19</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:32:40</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:32:58</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:33:27</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:33:56</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>4729</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:34:28</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:35:02</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:35:22</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>4910</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:35:38</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:35:53</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:36:12</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:36:47</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:37:11</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:37:28</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:37:46</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:38:14</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:38:32</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:39:00</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:39:25</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:39:51</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:40:11</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:40:31</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:40:48</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:41:07</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:41:26</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:41:55</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:42:18</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:42:35</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:42:52</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:43:13</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:43:44</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:44:20</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:44:41</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:45:01</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:45:29</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:45:44</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:46:10</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:46:31</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:46:54</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>44.77</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:47:51</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:48:18</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:48:46</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>26.65</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:49:38</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:50:07</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:50:26</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:50:49</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:51:06</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:51:42</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:52:10</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>2024-08-06 13:52:31</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>4064</t>
         </is>
       </c>
     </row>

--- a/multipliers.xlsx
+++ b/multipliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,9 +627,339 @@
           <t>2024-08-07 20:38:09</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10411</t>
+      <c r="C14" t="n">
+        <v>10411</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024-08-08 09:49:30</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5314</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024-08-08 09:50:12</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4775</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-08-08 09:52:02</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4855</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-08-08 09:53:41</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4955</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024-08-08 10:06:00</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-08-08 10:09:41</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2024-08-08 10:11:19</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2024-08-08 10:12:29</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>41.37</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-08-08 10:14:04</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-08-08 10:15:17</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024-08-08 10:16:17</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024-08-08 10:16:44</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>4862</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024-08-08 10:17:20</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2024-08-08 10:17:51</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>4726</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2024-08-08 10:18:15</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2024-08-08 10:18:37</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2024-08-08 11:01:17</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>5057</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-08-08 11:01:43</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2024-08-08 11:02:30</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>5113</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-08-08 11:02:53</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2024-08-08 11:03:33</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024-08-08 11:03:57</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4994</t>
         </is>
       </c>
     </row>

--- a/multipliers.xlsx
+++ b/multipliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,9 +957,6009 @@
           <t>2024-08-08 11:03:57</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>4994</t>
+      <c r="C36" t="n">
+        <v>4994</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:01:36</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>5291</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:03:24</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:10:39</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>5983</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:11:11</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:16:34</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5947</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:17:00</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>6606</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:18:52</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:20:35</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>4712</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:27:51</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5538</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:35:00</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>4808</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:36:28</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>4987</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:37:09</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:37:50</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>5666</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:38:31</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:38:51</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>5864</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:39:12</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:39:33</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:40:14</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:40:35</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:41:32</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:41:53</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>4816</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:42:33</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>4938</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:43:14</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:43:35</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:44:16</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>5481</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:44:36</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:45:18</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>5412</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:45:39</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:46:15</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:51:06</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:51:30</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>4893</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:52:03</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:52:25</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>5247</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:52:53</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>32.53</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:53:44</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:54:07</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:54:33</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:54:58</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>4622</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:55:37</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2024-08-09 10:56:05</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2024-08-09 13:54:37</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>5161</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2024-08-09 13:57:37</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>6148</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2024-08-09 13:58:08</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2024-08-09 13:58:57</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>6422</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2024-08-09 13:59:36</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>6468</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2024-08-09 13:59:54</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>6719</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:01:52</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>6953</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:02:20</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>5917</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:02:40</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:03:30</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>5626</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:03:53</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>6185</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:04:22</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>6299</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:05:02</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>6233</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:05:23</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>6404</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:06:04</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>6094</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:06:24</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:06:47</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:07:13</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>5344</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:07:39</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:07:59</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>5884</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:08:34</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>5253</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:09:05</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>6068</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:09:51</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>6234</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:10:21</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>6550</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:10:49</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>6259</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:11:08</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>5662</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:11:28</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>5337</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:11:53</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>4842</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:12:21</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>4842</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:12:53</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>5305</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:13:16</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>263.26</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:14:40</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:15:15</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>4814</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:15:36</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:15:54</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:16:12</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>4546</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:16:48</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:17:36</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:17:56</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>5531</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:18:17</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:18:41</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>4812</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:19:02</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>5206</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:19:32</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:20:16</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>4985</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:20:38</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>5767</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:21:09</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>5199</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:21:41</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>4927</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:22:03</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>5517</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:22:46</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>5071</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:23:21</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>5758</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:23:48</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>5546</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:24:14</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>5681</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:24:54</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>5354</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:25:17</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>6259</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:25:41</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>4613</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:26:05</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:26:36</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>5103</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:27:11</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>5887</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:27:46</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>5924</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:28:06</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:28:30</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>5117</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:28:55</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>4974</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:29:34</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:30:11</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>6299</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:30:53</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>6115</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:31:19</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>5995</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:31:59</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>5497</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:32:28</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>6177</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:32:53</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>6652</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:33:21</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>5583</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:34:04</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>5872</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:34:29</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>5818</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:35:10</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>5843</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:35:52</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:36:15</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>6684</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:36:35</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>6074</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:37:46</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>5707</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:38:24</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>5856</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:38:49</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>6396</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:39:22</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>5918</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:40:00</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:40:36</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:41:10</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:41:31</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>6054</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:42:01</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>6138</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>117.96</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:43:11</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>6018</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:44:00</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>5626</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:44:26</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>6063</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:44:48</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>5724</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:45:10</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:45:56</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:46:30</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>7304</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:47:02</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>6689</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:47:30</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>7007</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:47:59</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>6145</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:48:19</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>6588</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:48:49</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>6504</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:49:25</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>7189</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:49:50</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>7330</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:50:20</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>6166</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:50:55</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>6920</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:51:19</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>6756</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:51:45</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>6661</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:52:34</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>6745</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:53:04</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>7580</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:53:38</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>7037</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:53:59</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>7031</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:54:21</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:54:54</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:55:45</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>6783</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:56:20</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:56:53</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>6988</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:57:24</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>6911</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:57:50</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:58:36</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>6862</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:59:07</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>7475</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2024-08-09 14:59:31</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>6883</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:00:02</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:00:28</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>7245</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:00:59</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>6666</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:01:22</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>6598</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:02:31</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>6329</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:02:48</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:03:28</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:04:17</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>6471</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:04:42</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>7202</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:05:09</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>7043</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>15.20</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:05:59</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>7303</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:06:21</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>6485</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:06:41</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:07:03</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>122.70</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:08:18</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>6893</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:08:44</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:09:20</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>6754</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:09:46</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>7584</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:10:29</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>7863</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:11:02</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>128.97</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:12:15</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>8072</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:13:04</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>4884</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:13:48</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>7190</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:14:19</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>8847</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:14:39</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>7891</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:15:05</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>6955</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:15:48</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>7321</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:16:09</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>9153</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:16:37</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>8235</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:17:00</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>7986</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:17:42</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>8142</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:18:21</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>7796</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:19:02</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>9056</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:19:30</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>8546</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:19:49</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:20:12</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>7572</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:20:43</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>8188</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:21:03</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>8521</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:21:42</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>7506</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:22:17</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>6186</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:22:47</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:23:42</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>4901</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:24:38</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>7281</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:25:22</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>8372</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:25:55</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>8177</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:26:25</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>6378</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:27:09</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>7674</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:27:48</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:28:16</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:29:01</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>7487</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:29:30</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>8219</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:30:15</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>9703</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:30:54</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>8924</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:31:27</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>9811</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:32:06</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>7201</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:32:49</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>9484</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:33:27</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>9336</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:33:50</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:34:15</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>9540</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:34:53</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>8725</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:35:24</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>9839</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:36:02</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>9120</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>125.08</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:37:16</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>9381</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:37:59</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>9604</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:38:20</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>9034</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:38:49</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>8931</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:39:39</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>9128</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:39:56</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:40:41</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>5225</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:41:21</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>9915</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:41:55</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>7533</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:42:24</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>9854</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:42:58</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>9659</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:43:37</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>6021</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:44:18</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>8644</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:44:40</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>10579</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:45:16</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>10292</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:45:53</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>8133</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:46:28</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>6081</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:47:08</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>9264</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:47:31</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>8745</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:47:56</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>4843</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:48:23</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>4881</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:48:57</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>7682</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:49:28</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:50:08</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>6560</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:50:58</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>7117</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:51:20</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>8687</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:51:53</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:52:22</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>6868</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:53:04</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>9123</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:53:34</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:54:13</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>4935</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:54:46</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>9183</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:55:20</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>7879</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:56:02</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>9054</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:56:45</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>9827</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:57:16</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:57:38</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>9338</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:58:05</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:58:41</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>9532</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:59:11</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>9223</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:59:58</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>9466</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:00:28</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:01:11</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>6901</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:01:53</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>9305</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:02:36</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>10183</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:02:58</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>7436</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:03:35</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>7969</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:04:06</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>8828</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:04:35</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>10324</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:05:12</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>7510</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:05:37</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>8114</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:05:56</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>8563</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:06:20</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>4737</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:06:40</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>7357</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:07:06</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>6751</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:07:28</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>6868</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:07:59</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>5919</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>624.53</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:09:37</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>7048</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:10:16</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>5278</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:10:47</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:11:33</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>6476</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:12:02</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>8662</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>47.66</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:13:05</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>7703</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:13:40</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>7559</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:14:18</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>6896</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:14:42</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>8361</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:15:10</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>8295</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:15:33</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>6978</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:16:05</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>7448</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:16:40</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:17:00</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:17:22</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:18:00</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>6627</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:18:37</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>6817</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:19:11</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:20:09</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>7960</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:20:42</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>9118</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:21:19</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>7030</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:22:01</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>5956</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:22:33</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>6425</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:22:55</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>8014</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:23:21</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>8387</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:23:47</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>8009</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:24:39</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>6745</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:25:06</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>6633</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:25:30</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>5908</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:25:57</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>4973</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:26:34</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>7547</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:27:08</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>9205</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:27:44</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>6830</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:28:19</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>4153</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:29:01</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>7546</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:29:26</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>8347</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:29:47</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>5733</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:30:10</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>7098</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:30:40</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>6971</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:31:02</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>7804</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:31:25</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>6395</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:32:03</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:32:45</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>6518</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:33:08</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>7069</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:33:27</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:33:49</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>5864</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:34:22</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>5441</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>72.44</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:35:30</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>6232</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>54.43</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:36:38</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>5518</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:37:13</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>7202</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:37:38</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>6519</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:38:03</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>6481</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:39:02</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>6439</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:39:38</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>8095</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>27.89</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:40:38</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>7893</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:41:05</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>8013</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:41:40</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>6859</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:42:04</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>8461</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:42:39</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>8141</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:43:07</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>7864</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:43:35</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>5578</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:44:20</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>8010</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:44:46</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>8872</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>45.35</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:45:47</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>6896</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:46:09</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:46:57</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>8142</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:47:21</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>7614</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:48:00</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>9090</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:48:55</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>6887</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:49:25</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>5479</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:50:00</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>6181</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:50:30</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:51:10</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>6943</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:51:45</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>9476</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:52:12</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>9544</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>32.31</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:53:11</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>9384</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:54:16</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>8686</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:55:01</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>9831</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:55:38</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>10150</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:56:02</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>9081</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:56:44</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>8751</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:57:28</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>7485</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:58:05</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>8288</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:58:38</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>5506</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:59:16</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>9138</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:59:55</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>8464</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:00:15</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>6421</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:00:35</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:00:56</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:01:22</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:02:10</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>8423</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:02:58</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:03:32</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>9697</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:03:57</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>8473</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:04:21</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>7118</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:04:50</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:05:22</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>8085</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:05:52</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>9920</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:06:12</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>8444</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:06:40</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>7418</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:07:05</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>7696</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:07:30</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>7285</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>658.81</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:09:01</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>6498</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:09:39</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>6713</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:10:13</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>7643</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:10:32</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>4763</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:10:58</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>6327</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:11:30</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>4622</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:12:05</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>6821</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:12:35</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>6406</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:13:22</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>5803</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:13:42</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>8491</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:14:19</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>5137</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:14:46</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>7604</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:15:06</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>5133</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:15:40</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:16:17</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>7970</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:16:42</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>7961</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:17:22</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>7242</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:17:47</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>6083</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:18:19</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>7784</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:18:52</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>6924</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:19:26</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>5057</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:19:46</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>6203</t>
         </is>
       </c>
     </row>

--- a/multipliers.xlsx
+++ b/multipliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C436"/>
+  <dimension ref="A1:C462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6957,9 +6957,399 @@
           <t>2024-08-09 17:19:46</t>
         </is>
       </c>
-      <c r="C436" t="inlineStr">
-        <is>
-          <t>6203</t>
+      <c r="C436" t="n">
+        <v>6203</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>2024-08-11 20:52:17</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>5438</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:00:36</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>4149</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:00:53</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:01:22</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>3883</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:01:48</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:05:43</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:06:09</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:11:19</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:11:39</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>4919</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:12:04</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:12:21</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>4721</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:14:16</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:14:51</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:17:50</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:18:35</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:18:53</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>347.84</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:24:34</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:25:05</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:25:25</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:25:26</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:26:24</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:26:59</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>4589</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:27:21</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:27:57</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:28:36</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:28:53</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>4690</t>
         </is>
       </c>
     </row>

--- a/multipliers.xlsx
+++ b/multipliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C462"/>
+  <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7347,9 +7347,24 @@
           <t>2024-08-11 21:28:53</t>
         </is>
       </c>
-      <c r="C462" t="inlineStr">
-        <is>
-          <t>4690</t>
+      <c r="C462" t="n">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>2024-08-11 21:38:52</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>4229</t>
         </is>
       </c>
     </row>

--- a/multipliers.xlsx
+++ b/multipliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C463"/>
+  <dimension ref="A1:C512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7362,9 +7362,744 @@
           <t>2024-08-11 21:38:52</t>
         </is>
       </c>
-      <c r="C463" t="inlineStr">
-        <is>
-          <t>4229</t>
+      <c r="C463" t="n">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>2024-08-12 07:58:16</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>2024-08-12 07:58:47</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>2024-08-12 07:58:47</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>2024-08-12 08:00:41</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>69.86</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>2024-08-12 08:01:07</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>2024-08-12 08:01:25</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>2024-08-12 08:01:41</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>2024-08-12 08:02:01</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>2024-08-12 08:02:19</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>2024-08-12 08:03:49</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>2024-08-12 08:03:50</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>2024-08-12 08:04:21</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>2024-08-12 08:08:01</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>5052</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>18.90</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>2024-08-12 08:08:54</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>5056</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>2024-08-12 08:08:54</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>5056</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>2024-08-12 08:09:44</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>2024-08-12 08:10:11</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>5483</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>48.70</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>2024-08-12 08:11:14</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>5486</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>2024-08-12 08:11:58</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>5733</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>2024-08-12 08:12:22</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>6113</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>2024-08-12 08:12:40</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>2024-08-12 08:12:40</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>2024-08-12 08:12:57</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>2024-08-12 09:58:27</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>2024-08-12 10:06:37</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>7414</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>2024-08-12 10:10:37</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>7183</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>2024-08-12 10:12:21</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>6293</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>45.31</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>2024-08-12 10:12:34</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>6293</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>2024-08-12 10:15:27</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>6349</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>2024-08-12 10:15:30</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>6349</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>2024-08-12 10:16:08</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>6053</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>2024-08-12 10:16:33</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>6757</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>2024-08-12 10:17:23</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>6295</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>2024-08-12 10:18:08</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>6496</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>2024-08-12 10:18:42</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>7111</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>2024-08-12 10:18:43</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>7111</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>2024-08-12 10:19:10</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>4908</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>2024-08-12 10:19:10</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>4908</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>2024-08-12 10:19:39</t>
+        </is>
+      </c>
+      <c r="C502" t="n">
+        <v>6096</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>2024-08-12 11:46:23</t>
+        </is>
+      </c>
+      <c r="C503" t="n">
+        <v>5608</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>2024-08-12 11:46:48</t>
+        </is>
+      </c>
+      <c r="C504" t="n">
+        <v>5992</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>2024-08-12 11:46:48</t>
+        </is>
+      </c>
+      <c r="C505" t="n">
+        <v>5992</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>2024-08-13 12:06:41</t>
+        </is>
+      </c>
+      <c r="C506" t="n">
+        <v>6723</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>2024-08-13 12:07:27</t>
+        </is>
+      </c>
+      <c r="C507" t="n">
+        <v>6707</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>2024-08-13 12:07:53</t>
+        </is>
+      </c>
+      <c r="C508" t="n">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>2024-08-13 12:08:21</t>
+        </is>
+      </c>
+      <c r="C509" t="n">
+        <v>6553</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>132.69</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>2024-08-13 12:09:33</t>
+        </is>
+      </c>
+      <c r="C510" t="n">
+        <v>7088</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>2024-08-13 12:09:53</t>
+        </is>
+      </c>
+      <c r="C511" t="n">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>2024-08-13 12:10:11</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>6027</t>
         </is>
       </c>
     </row>
